--- a/game_data.xlsx
+++ b/game_data.xlsx
@@ -706,54 +706,54 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fallout 3: Game of the Year Edition</t>
+          <t>System Shock</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>£3.99</t>
+          <t>£15.74</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>£15.99</t>
+          <t>£34.99</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-75%</t>
+          <t>-55%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mostly Positive</t>
+          <t>Very Positive</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>System Shock</t>
+          <t>Fallout 3: Game of the Year Edition</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>£15.74</t>
+          <t>£3.99</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>£34.99</t>
+          <t>£15.99</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-55%</t>
+          <t>-75%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Very Positive</t>
+          <t>Mostly Positive</t>
         </is>
       </c>
     </row>
